--- a/po_analysis_by_asin/B0CDJCS4L5_po_data.xlsx
+++ b/po_analysis_by_asin/B0CDJCS4L5_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,49 +452,121 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>270</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45320</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45355</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45362</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B7" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B16" t="n">
         <v>80</v>
       </c>
     </row>
@@ -509,7 +581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,17 +603,57 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>450</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B3" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B8" t="n">
         <v>170</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0CDJCS4L5_po_data.xlsx
+++ b/po_analysis_by_asin/B0CDJCS4L5_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,22 +554,6 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>45361.99999999999</v>
-      </c>
-      <c r="B15" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45368.99999999999</v>
-      </c>
-      <c r="B16" t="n">
-        <v>80</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -581,7 +565,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,14 +633,6 @@
         <v>450</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45382.99999999999</v>
-      </c>
-      <c r="B8" t="n">
-        <v>170</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/po_analysis_by_asin/B0CDJCS4L5_po_data.xlsx
+++ b/po_analysis_by_asin/B0CDJCS4L5_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -581,7 +582,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -631,6 +632,341 @@
       </c>
       <c r="B7" t="n">
         <v>450</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>46</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-39.07081884572379</v>
+      </c>
+      <c r="D2" t="n">
+        <v>127.4443950536063</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>62</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-20.28361089380866</v>
+      </c>
+      <c r="D3" t="n">
+        <v>146.1919916878238</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>71</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-12.66869360942976</v>
+      </c>
+      <c r="D4" t="n">
+        <v>160.2563542430465</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>75</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-12.27626362383687</v>
+      </c>
+      <c r="D5" t="n">
+        <v>158.3710679556844</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>78</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-2.290807041919751</v>
+      </c>
+      <c r="D6" t="n">
+        <v>167.4641038538775</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>81</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1.082325752679096</v>
+      </c>
+      <c r="D7" t="n">
+        <v>162.8047072176871</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>84</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8484076718976091</v>
+      </c>
+      <c r="D8" t="n">
+        <v>166.1782898770095</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>87</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.209025691664855</v>
+      </c>
+      <c r="D9" t="n">
+        <v>179.1413093129543</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>15.77075566999813</v>
+      </c>
+      <c r="D10" t="n">
+        <v>185.9685324313849</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>110</v>
+      </c>
+      <c r="C11" t="n">
+        <v>24.35130387574558</v>
+      </c>
+      <c r="D11" t="n">
+        <v>196.7298259068668</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>113</v>
+      </c>
+      <c r="C12" t="n">
+        <v>31.47596603627312</v>
+      </c>
+      <c r="D12" t="n">
+        <v>190.2511533564908</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>116</v>
+      </c>
+      <c r="C13" t="n">
+        <v>27.61957836492062</v>
+      </c>
+      <c r="D13" t="n">
+        <v>202.7846194573669</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>123</v>
+      </c>
+      <c r="C14" t="n">
+        <v>37.39069393502497</v>
+      </c>
+      <c r="D14" t="n">
+        <v>203.9082197871821</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>126</v>
+      </c>
+      <c r="C15" t="n">
+        <v>41.91665298396944</v>
+      </c>
+      <c r="D15" t="n">
+        <v>205.1682424965823</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>129</v>
+      </c>
+      <c r="C16" t="n">
+        <v>51.10059771625389</v>
+      </c>
+      <c r="D16" t="n">
+        <v>212.3848700030416</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>132</v>
+      </c>
+      <c r="C17" t="n">
+        <v>47.37596506673712</v>
+      </c>
+      <c r="D17" t="n">
+        <v>216.6359751392795</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>135</v>
+      </c>
+      <c r="C18" t="n">
+        <v>53.52541695182018</v>
+      </c>
+      <c r="D18" t="n">
+        <v>218.7787982713472</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>139</v>
+      </c>
+      <c r="C19" t="n">
+        <v>60.80526038111317</v>
+      </c>
+      <c r="D19" t="n">
+        <v>222.7180490171536</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>142</v>
+      </c>
+      <c r="C20" t="n">
+        <v>50.2181217786487</v>
+      </c>
+      <c r="D20" t="n">
+        <v>225.5680713372261</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>145</v>
+      </c>
+      <c r="C21" t="n">
+        <v>59.41127375943513</v>
+      </c>
+      <c r="D21" t="n">
+        <v>232.420114132411</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>148</v>
+      </c>
+      <c r="C22" t="n">
+        <v>59.1078219349513</v>
+      </c>
+      <c r="D22" t="n">
+        <v>230.2962388318446</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CDJCS4L5_po_data.xlsx
+++ b/po_analysis_by_asin/B0CDJCS4L5_po_data.xlsx
@@ -645,7 +645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -664,16 +664,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -682,12 +672,6 @@
       <c r="B2" t="n">
         <v>46</v>
       </c>
-      <c r="C2" t="n">
-        <v>-39.07081884572379</v>
-      </c>
-      <c r="D2" t="n">
-        <v>127.4443950536063</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -696,12 +680,6 @@
       <c r="B3" t="n">
         <v>62</v>
       </c>
-      <c r="C3" t="n">
-        <v>-20.28361089380866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>146.1919916878238</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -710,12 +688,6 @@
       <c r="B4" t="n">
         <v>71</v>
       </c>
-      <c r="C4" t="n">
-        <v>-12.66869360942976</v>
-      </c>
-      <c r="D4" t="n">
-        <v>160.2563542430465</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -724,12 +696,6 @@
       <c r="B5" t="n">
         <v>75</v>
       </c>
-      <c r="C5" t="n">
-        <v>-12.27626362383687</v>
-      </c>
-      <c r="D5" t="n">
-        <v>158.3710679556844</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -738,12 +704,6 @@
       <c r="B6" t="n">
         <v>78</v>
       </c>
-      <c r="C6" t="n">
-        <v>-2.290807041919751</v>
-      </c>
-      <c r="D6" t="n">
-        <v>167.4641038538775</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -752,12 +712,6 @@
       <c r="B7" t="n">
         <v>81</v>
       </c>
-      <c r="C7" t="n">
-        <v>-1.082325752679096</v>
-      </c>
-      <c r="D7" t="n">
-        <v>162.8047072176871</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -766,12 +720,6 @@
       <c r="B8" t="n">
         <v>84</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.8484076718976091</v>
-      </c>
-      <c r="D8" t="n">
-        <v>166.1782898770095</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -780,12 +728,6 @@
       <c r="B9" t="n">
         <v>87</v>
       </c>
-      <c r="C9" t="n">
-        <v>2.209025691664855</v>
-      </c>
-      <c r="D9" t="n">
-        <v>179.1413093129543</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -794,12 +736,6 @@
       <c r="B10" t="n">
         <v>100</v>
       </c>
-      <c r="C10" t="n">
-        <v>15.77075566999813</v>
-      </c>
-      <c r="D10" t="n">
-        <v>185.9685324313849</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -808,12 +744,6 @@
       <c r="B11" t="n">
         <v>110</v>
       </c>
-      <c r="C11" t="n">
-        <v>24.35130387574558</v>
-      </c>
-      <c r="D11" t="n">
-        <v>196.7298259068668</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -822,12 +752,6 @@
       <c r="B12" t="n">
         <v>113</v>
       </c>
-      <c r="C12" t="n">
-        <v>31.47596603627312</v>
-      </c>
-      <c r="D12" t="n">
-        <v>190.2511533564908</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -836,12 +760,6 @@
       <c r="B13" t="n">
         <v>116</v>
       </c>
-      <c r="C13" t="n">
-        <v>27.61957836492062</v>
-      </c>
-      <c r="D13" t="n">
-        <v>202.7846194573669</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -850,12 +768,6 @@
       <c r="B14" t="n">
         <v>123</v>
       </c>
-      <c r="C14" t="n">
-        <v>37.39069393502497</v>
-      </c>
-      <c r="D14" t="n">
-        <v>203.9082197871821</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -864,12 +776,6 @@
       <c r="B15" t="n">
         <v>126</v>
       </c>
-      <c r="C15" t="n">
-        <v>41.91665298396944</v>
-      </c>
-      <c r="D15" t="n">
-        <v>205.1682424965823</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -878,12 +784,6 @@
       <c r="B16" t="n">
         <v>129</v>
       </c>
-      <c r="C16" t="n">
-        <v>51.10059771625389</v>
-      </c>
-      <c r="D16" t="n">
-        <v>212.3848700030416</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -892,12 +792,6 @@
       <c r="B17" t="n">
         <v>132</v>
       </c>
-      <c r="C17" t="n">
-        <v>47.37596506673712</v>
-      </c>
-      <c r="D17" t="n">
-        <v>216.6359751392795</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -906,12 +800,6 @@
       <c r="B18" t="n">
         <v>135</v>
       </c>
-      <c r="C18" t="n">
-        <v>53.52541695182018</v>
-      </c>
-      <c r="D18" t="n">
-        <v>218.7787982713472</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -920,12 +808,6 @@
       <c r="B19" t="n">
         <v>139</v>
       </c>
-      <c r="C19" t="n">
-        <v>60.80526038111317</v>
-      </c>
-      <c r="D19" t="n">
-        <v>222.7180490171536</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -934,12 +816,6 @@
       <c r="B20" t="n">
         <v>142</v>
       </c>
-      <c r="C20" t="n">
-        <v>50.2181217786487</v>
-      </c>
-      <c r="D20" t="n">
-        <v>225.5680713372261</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -948,12 +824,6 @@
       <c r="B21" t="n">
         <v>145</v>
       </c>
-      <c r="C21" t="n">
-        <v>59.41127375943513</v>
-      </c>
-      <c r="D21" t="n">
-        <v>232.420114132411</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -961,12 +831,6 @@
       </c>
       <c r="B22" t="n">
         <v>148</v>
-      </c>
-      <c r="C22" t="n">
-        <v>59.1078219349513</v>
-      </c>
-      <c r="D22" t="n">
-        <v>230.2962388318446</v>
       </c>
     </row>
   </sheetData>
